--- a/data/empresas.xlsx
+++ b/data/empresas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\software_mapas_ICA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41F40F7-EBDF-4FE3-8AB4-4B93F66FE3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8829BCA-5D96-48B9-B6D3-333EB54B5841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="790" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FERIAS" sheetId="20" r:id="rId1"/>
@@ -6306,7 +6306,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6908,6 +6908,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -12040,8 +12043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -14171,8 +14174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y71"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -14249,10 +14252,10 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="163" t="s">
+      <c r="S2" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="163"/>
+      <c r="T2" s="176"/>
       <c r="U2" s="162" t="s">
         <v>44</v>
       </c>
@@ -14325,7 +14328,7 @@
         <v>4</v>
       </c>
       <c r="U3" s="106" t="s">
-        <v>5</v>
+        <v>1739</v>
       </c>
       <c r="V3" s="106" t="s">
         <v>6</v>
@@ -19550,10 +19553,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:N2"/>
-    <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:X2"/>
   </mergeCells>
   <conditionalFormatting sqref="A43:D43">
@@ -20024,8 +20026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -20137,7 +20139,7 @@
         <v>4</v>
       </c>
       <c r="P3" s="106" t="s">
-        <v>5</v>
+        <v>1739</v>
       </c>
       <c r="Q3" s="106" t="s">
         <v>6</v>
@@ -23311,8 +23313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -23430,7 +23432,7 @@
         <v>4</v>
       </c>
       <c r="M3" s="107" t="s">
-        <v>5</v>
+        <v>1739</v>
       </c>
       <c r="N3" s="107" t="s">
         <v>60</v>
@@ -23770,8 +23772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AD68"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -28498,8 +28500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="I26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -28606,7 +28608,7 @@
         <v>4</v>
       </c>
       <c r="N3" s="106" t="s">
-        <v>5</v>
+        <v>1739</v>
       </c>
       <c r="O3" s="106" t="s">
         <v>60</v>
@@ -31325,8 +31327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AT19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -31400,9 +31402,7 @@
       <c r="M2" s="162"/>
       <c r="N2" s="162"/>
       <c r="O2" s="162"/>
-      <c r="P2" s="153" t="s">
-        <v>104</v>
-      </c>
+      <c r="P2" s="153"/>
       <c r="Q2" s="162" t="s">
         <v>70</v>
       </c>
@@ -31473,7 +31473,9 @@
       <c r="O3" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="154"/>
+      <c r="P3" s="154" t="s">
+        <v>104</v>
+      </c>
       <c r="Q3" s="159" t="s">
         <v>105</v>
       </c>

--- a/data/empresas.xlsx
+++ b/data/empresas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\software_mapas_ICA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8829BCA-5D96-48B9-B6D3-333EB54B5841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC501287-AAC4-4AF9-A247-AC0D204D143A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FERIAS" sheetId="20" r:id="rId1"/>
@@ -6822,9 +6822,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6861,6 +6858,9 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6868,9 +6868,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6900,16 +6897,19 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12043,7 +12043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -12121,7 +12121,7 @@
       <c r="AB2" s="160"/>
       <c r="AC2" s="160"/>
       <c r="AD2" s="104"/>
-      <c r="AE2" s="157"/>
+      <c r="AE2" s="156"/>
     </row>
     <row r="3" spans="1:31" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="142" t="s">
@@ -12214,7 +12214,7 @@
       <c r="AD3" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="AE3" s="157" t="s">
+      <c r="AE3" s="156" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14174,8 +14174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -14252,19 +14252,17 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="176" t="s">
+      <c r="S2" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="176"/>
+      <c r="T2" s="159"/>
       <c r="U2" s="162" t="s">
         <v>44</v>
       </c>
       <c r="V2" s="162"/>
       <c r="W2" s="162"/>
       <c r="X2" s="162"/>
-      <c r="Y2" s="144" t="s">
-        <v>101</v>
-      </c>
+      <c r="Y2" s="144"/>
     </row>
     <row r="3" spans="1:25" ht="13.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="147" t="s">
@@ -14276,7 +14274,7 @@
       <c r="C3" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="149" t="s">
+      <c r="D3" s="175" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="106" t="s">
@@ -14339,7 +14337,9 @@
       <c r="X3" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="Y3" s="145"/>
+      <c r="Y3" s="145" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="4" spans="1:25" ht="13.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="75" t="s">
@@ -20026,8 +20026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -20061,39 +20061,39 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="13.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150"/>
-      <c r="B2" s="164" t="s">
+      <c r="A2" s="149"/>
+      <c r="B2" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="165" t="s">
+      <c r="C2" s="163"/>
+      <c r="D2" s="164" t="s">
         <v>1326</v>
       </c>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="164" t="s">
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="164"/>
+      <c r="L2" s="163"/>
       <c r="M2" s="107"/>
-      <c r="N2" s="168" t="s">
+      <c r="N2" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="168"/>
-      <c r="P2" s="164" t="s">
+      <c r="O2" s="167"/>
+      <c r="P2" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="151"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="150"/>
     </row>
     <row r="3" spans="1:20" ht="13.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="149" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -20150,7 +20150,7 @@
       <c r="S3" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="T3" s="151" t="s">
+      <c r="T3" s="150" t="s">
         <v>101</v>
       </c>
     </row>
@@ -23313,8 +23313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -23353,49 +23353,49 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="13.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150"/>
-      <c r="B2" s="164" t="s">
+      <c r="A2" s="149"/>
+      <c r="B2" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164" t="s">
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164" t="s">
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="164"/>
+      <c r="I2" s="163"/>
       <c r="J2" s="107"/>
-      <c r="K2" s="164" t="s">
+      <c r="K2" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164" t="s">
+      <c r="L2" s="163"/>
+      <c r="M2" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164" t="s">
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
       <c r="Y2" s="107"/>
-      <c r="Z2" s="151" t="s">
+      <c r="Z2" s="150" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="149" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -23470,7 +23470,7 @@
       <c r="Y3" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="Z3" s="151"/>
+      <c r="Z3" s="150"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="86" t="s">
@@ -23772,7 +23772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AD68"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -23805,42 +23805,42 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="13.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="164" t="s">
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164" t="s">
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="164"/>
+      <c r="J2" s="163"/>
       <c r="K2" s="107"/>
-      <c r="L2" s="168" t="s">
+      <c r="L2" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="168"/>
-      <c r="N2" s="164" t="s">
+      <c r="M2" s="167"/>
+      <c r="N2" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
       <c r="R2" s="107"/>
-      <c r="S2" s="151" t="s">
+      <c r="S2" s="150" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="150"/>
+      <c r="A3" s="149"/>
       <c r="B3" s="95" t="s">
         <v>33</v>
       </c>
@@ -23892,7 +23892,7 @@
       <c r="R3" s="8" t="s">
         <v>1696</v>
       </c>
-      <c r="S3" s="151"/>
+      <c r="S3" s="150"/>
     </row>
     <row r="4" spans="1:30" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="86" t="s">
@@ -28500,8 +28500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView topLeftCell="I26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -28533,44 +28533,44 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="13.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="149" t="s">
         <v>102</v>
       </c>
       <c r="B2" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="171" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172" t="s">
+      <c r="D2" s="171"/>
+      <c r="E2" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
       <c r="I2" s="162" t="s">
         <v>50</v>
       </c>
       <c r="J2" s="162"/>
       <c r="K2" s="106"/>
-      <c r="L2" s="163" t="s">
+      <c r="L2" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="163"/>
+      <c r="M2" s="172"/>
       <c r="N2" s="162" t="s">
         <v>44</v>
       </c>
       <c r="O2" s="162"/>
       <c r="P2" s="162"/>
       <c r="Q2" s="162"/>
-      <c r="R2" s="172" t="s">
+      <c r="R2" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="172"/>
+      <c r="S2" s="171"/>
     </row>
     <row r="3" spans="1:19" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="150"/>
+      <c r="A3" s="149"/>
       <c r="B3" s="106" t="s">
         <v>37</v>
       </c>
@@ -31373,13 +31373,13 @@
       </c>
     </row>
     <row r="2" spans="1:46" ht="13.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="152" t="s">
+      <c r="C2" s="151" t="s">
         <v>103</v>
       </c>
       <c r="D2" s="162" t="s">
@@ -31402,7 +31402,7 @@
       <c r="M2" s="162"/>
       <c r="N2" s="162"/>
       <c r="O2" s="162"/>
-      <c r="P2" s="153"/>
+      <c r="P2" s="152"/>
       <c r="Q2" s="162" t="s">
         <v>70</v>
       </c>
@@ -31434,122 +31434,122 @@
       <c r="AQ2" s="7"/>
     </row>
     <row r="3" spans="1:46" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="150"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="150" t="s">
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="150" t="s">
+      <c r="E3" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="150" t="s">
+      <c r="F3" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="150" t="s">
+      <c r="G3" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="150" t="s">
+      <c r="H3" s="149" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="150" t="s">
+      <c r="J3" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="150" t="s">
+      <c r="K3" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="150" t="s">
+      <c r="L3" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="150" t="s">
+      <c r="M3" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="150" t="s">
+      <c r="N3" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="150" t="s">
+      <c r="O3" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="154" t="s">
+      <c r="P3" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="Q3" s="159" t="s">
+      <c r="Q3" s="158" t="s">
         <v>105</v>
       </c>
-      <c r="R3" s="159" t="s">
+      <c r="R3" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="150" t="s">
+      <c r="S3" s="149" t="s">
         <v>120</v>
       </c>
-      <c r="T3" s="150" t="s">
+      <c r="T3" s="149" t="s">
         <v>71</v>
       </c>
-      <c r="U3" s="150"/>
-      <c r="V3" s="150"/>
-      <c r="W3" s="150"/>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="158" t="s">
+      <c r="U3" s="149"/>
+      <c r="V3" s="149"/>
+      <c r="W3" s="149"/>
+      <c r="X3" s="149"/>
+      <c r="Y3" s="149"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="AB3" s="150" t="s">
+      <c r="AB3" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" s="150"/>
-      <c r="AD3" s="150" t="s">
+      <c r="AC3" s="149"/>
+      <c r="AD3" s="149" t="s">
         <v>94</v>
       </c>
-      <c r="AE3" s="150"/>
-      <c r="AF3" s="150" t="s">
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="AG3" s="150"/>
-      <c r="AH3" s="150" t="s">
+      <c r="AG3" s="149"/>
+      <c r="AH3" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="AI3" s="150"/>
-      <c r="AJ3" s="150" t="s">
+      <c r="AI3" s="149"/>
+      <c r="AJ3" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="AK3" s="150"/>
-      <c r="AL3" s="150" t="s">
+      <c r="AK3" s="149"/>
+      <c r="AL3" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="AM3" s="150"/>
-      <c r="AN3" s="150" t="s">
+      <c r="AM3" s="149"/>
+      <c r="AN3" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="AO3" s="150"/>
-      <c r="AP3" s="150" t="s">
+      <c r="AO3" s="149"/>
+      <c r="AP3" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="AQ3" s="150"/>
+      <c r="AQ3" s="149"/>
     </row>
     <row r="4" spans="1:46" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="150"/>
-      <c r="B4" s="150"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
+      <c r="A4" s="149"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
       <c r="I4" s="106"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
-      <c r="P4" s="155"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="159"/>
-      <c r="S4" s="150"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="149"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="158"/>
+      <c r="R4" s="158"/>
+      <c r="S4" s="149"/>
       <c r="T4" s="106" t="s">
         <v>12</v>
       </c>
@@ -31571,7 +31571,7 @@
       <c r="Z4" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="158"/>
+      <c r="AA4" s="157"/>
       <c r="AB4" s="106" t="s">
         <v>40</v>
       </c>
@@ -33870,9 +33870,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y3" sqref="Y3"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -33909,51 +33909,51 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="13.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150"/>
-      <c r="B2" s="164" t="s">
+      <c r="A2" s="149"/>
+      <c r="B2" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164" t="s">
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="164"/>
+      <c r="F2" s="163"/>
       <c r="G2" s="107"/>
-      <c r="H2" s="168" t="s">
+      <c r="H2" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="168"/>
-      <c r="J2" s="164" t="s">
+      <c r="I2" s="167"/>
+      <c r="J2" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
       <c r="N2" s="173" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="164" t="s">
+      <c r="O2" s="163" t="s">
         <v>85</v>
       </c>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
       <c r="V2" s="107" t="s">
         <v>73</v>
       </c>
       <c r="W2" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="X2" s="156" t="s">
+      <c r="X2" s="155" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="149" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -34020,7 +34020,7 @@
       <c r="W3" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="156"/>
+      <c r="X3" s="155"/>
     </row>
     <row r="4" spans="1:25" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="84" t="s">
@@ -37227,8 +37227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T107"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -37246,8 +37246,8 @@
     <col min="11" max="11" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="40.140625" style="1" customWidth="1"/>
     <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -37260,34 +37260,30 @@
       <c r="A2" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164" t="s">
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="164"/>
+      <c r="F2" s="163"/>
       <c r="G2" s="107"/>
-      <c r="H2" s="168" t="s">
+      <c r="H2" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="168"/>
-      <c r="J2" s="164" t="s">
+      <c r="I2" s="167"/>
+      <c r="J2" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="172" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" s="175" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="150"/>
+    </row>
+    <row r="3" spans="1:15" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="162"/>
       <c r="B3" s="107" t="s">
         <v>67</v>
@@ -37325,8 +37321,12 @@
       <c r="M3" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="172"/>
-      <c r="O3" s="175"/>
+      <c r="N3" s="176" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" s="150" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="86" t="s">
@@ -42223,14 +42223,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="O2:O3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <conditionalFormatting sqref="A104:B104">
     <cfRule type="cellIs" dxfId="43" priority="10" operator="equal">
